--- a/crap.xlsx
+++ b/crap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://automationanywhere1-my.sharepoint.com/personal/rahil_naik_automationanywhere_com/Documents/Documents/Personal/Business/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://automationanywhere1-my.sharepoint.com/personal/rahil_naik_automationanywhere_com/Documents/Documents/Personal/Business/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{652D0035-88A7-48FE-9A80-71353D8F7363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05287982-ECDA-4972-B050-220A676DD933}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{652D0035-88A7-48FE-9A80-71353D8F7363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{036859A0-5438-4290-881B-C2BA6C2B13DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B272A6A-DFDE-48CF-B84C-EB1EB14F9BD7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>SSN Number</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>Commets</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Deposit Cheque 212</t>
+  </si>
+  <si>
+    <t>Deposit Cheque 111</t>
+  </si>
+  <si>
+    <t>05-20-2025</t>
+  </si>
+  <si>
+    <t>Deposit Cheque 313</t>
+  </si>
+  <si>
+    <t>Charges</t>
   </si>
 </sst>
 </file>
@@ -600,7 +618,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +659,9 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" t="s">
         <v>32</v>
       </c>
@@ -993,25 +1014,121 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>222222222</v>
       </c>
+      <c r="B13" s="3">
+        <v>45996</v>
+      </c>
+      <c r="C13">
+        <v>1003321229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45801</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>950</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>333333333</v>
+        <v>222222222</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45996</v>
+      </c>
+      <c r="C14">
+        <v>1003321229</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45801</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>444444444</v>
+        <v>222222222</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>1003321229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45801</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>666666666</v>
+        <v>222222222</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>1003321229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45801</v>
+      </c>
+      <c r="F16">
+        <v>1100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
